--- a/data/CBS/NFIB/Actual Compensation Changes.xlsx
+++ b/data/CBS/NFIB/Actual Compensation Changes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DAF4DA-78E8-4F78-9CB2-EAC83764E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="474">
   <si>
     <t>Month/Year</t>
   </si>
@@ -51,18 +52,18 @@
     <t>1986/5/1</t>
   </si>
   <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
     <t>1986/8/1</t>
   </si>
   <si>
@@ -165,15 +166,15 @@
     <t>1988/10/1</t>
   </si>
   <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
     <t>1989/1/1</t>
   </si>
   <si>
@@ -282,12 +283,12 @@
     <t>1991/10/1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>1991/11/1</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1991/12/1</t>
   </si>
   <si>
@@ -471,33 +472,33 @@
     <t>1996/10/1</t>
   </si>
   <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
     <t>1997/6/1</t>
   </si>
   <si>
@@ -513,12 +514,12 @@
     <t>1997/10/1</t>
   </si>
   <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
     <t>1997/12/1</t>
   </si>
   <si>
@@ -609,27 +610,30 @@
     <t>2000/5/1</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
     <t>2000/12/1</t>
   </si>
   <si>
@@ -948,9 +952,6 @@
     <t>2009/5/1</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>2009/6/1</t>
   </si>
   <si>
@@ -1014,9 +1015,6 @@
     <t>2010/10/1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2010/11/1</t>
   </si>
   <si>
@@ -1302,7 +1300,7 @@
     <t>2018/5/1</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>2018/6/1</t>
@@ -1332,9 +1330,6 @@
     <t>2019/1/1</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>2019/2/1</t>
   </si>
   <si>
@@ -1440,13 +1435,19 @@
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>45</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,6 +1596,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1630,6 +1648,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1805,8 +1840,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1863,23 +1898,23 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1970,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,12 +2130,12 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -2108,10 +2143,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2186,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2226,7 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2282,7 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2290,7 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2298,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2322,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2346,7 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2378,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2394,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2410,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,15 +2418,15 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
         <v>87</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2474,7 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2490,7 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2506,7 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2514,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2522,7 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2554,7 @@
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2570,7 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2578,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2594,7 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2610,7 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2666,7 @@
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2706,7 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2730,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2738,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +2762,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2802,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2850,7 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2858,7 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2866,7 @@
         <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2890,7 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,12 +2898,12 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
         <v>45</v>
@@ -2876,15 +2911,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" t="s">
         <v>152</v>
-      </c>
-      <c r="B133" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
         <v>58</v>
@@ -2892,7 +2927,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
         <v>58</v>
@@ -2900,7 +2935,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
         <v>35</v>
@@ -2908,7 +2943,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
         <v>45</v>
@@ -2916,10 +2951,10 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" t="s">
         <v>158</v>
-      </c>
-      <c r="B138" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2978,7 @@
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2986,7 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,15 +2994,15 @@
         <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" t="s">
         <v>165</v>
-      </c>
-      <c r="B144" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +3010,7 @@
         <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +3018,7 @@
         <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3050,7 @@
         <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3058,7 @@
         <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3074,7 @@
         <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3090,7 @@
         <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3122,7 @@
         <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3130,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3146,7 @@
         <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3154,7 @@
         <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3162,7 @@
         <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3186,7 @@
         <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3202,7 @@
         <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3226,7 @@
         <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3234,7 @@
         <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3250,7 @@
         <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3258,7 @@
         <v>198</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3274,7 @@
         <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3282,7 @@
         <v>201</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,20 +3290,20 @@
         <v>202</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>204</v>
+      </c>
+      <c r="B181" t="s">
         <v>203</v>
-      </c>
-      <c r="B181" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B182" t="s">
         <v>45</v>
@@ -3276,7 +3311,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B183" t="s">
         <v>58</v>
@@ -3284,7 +3319,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B184" t="s">
         <v>58</v>
@@ -3292,7 +3327,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
         <v>53</v>
@@ -3300,15 +3335,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
         <v>38</v>
@@ -3316,7 +3351,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B188" t="s">
         <v>38</v>
@@ -3324,7 +3359,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B189" t="s">
         <v>35</v>
@@ -3332,7 +3367,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3340,15 +3375,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3356,7 +3391,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -3364,7 +3399,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
@@ -3372,15 +3407,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
@@ -3388,7 +3423,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3396,15 +3431,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B199" t="s">
         <v>30</v>
@@ -3412,7 +3447,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -3420,7 +3455,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3428,7 +3463,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B202" t="s">
         <v>17</v>
@@ -3436,15 +3471,15 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -3452,7 +3487,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
@@ -3460,7 +3495,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -3468,23 +3503,23 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -3492,39 +3527,39 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B214" t="s">
         <v>17</v>
@@ -3532,15 +3567,15 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -3548,7 +3583,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3556,7 +3591,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B218" t="s">
         <v>25</v>
@@ -3564,7 +3599,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s">
         <v>25</v>
@@ -3572,7 +3607,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -3580,7 +3615,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s">
         <v>30</v>
@@ -3588,15 +3623,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -3604,7 +3639,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B224" t="s">
         <v>30</v>
@@ -3612,7 +3647,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3620,7 +3655,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
@@ -3628,15 +3663,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
@@ -3644,7 +3679,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B229" t="s">
         <v>58</v>
@@ -3652,7 +3687,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
@@ -3660,7 +3695,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B231" t="s">
         <v>45</v>
@@ -3668,7 +3703,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
         <v>35</v>
@@ -3676,23 +3711,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
@@ -3700,7 +3735,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s">
         <v>35</v>
@@ -3708,7 +3743,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B237" t="s">
         <v>35</v>
@@ -3716,23 +3751,23 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B238" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
         <v>30</v>
@@ -3740,15 +3775,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
@@ -3756,7 +3791,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
@@ -3764,7 +3799,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B244" t="s">
         <v>30</v>
@@ -3772,7 +3807,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B245" t="s">
         <v>53</v>
@@ -3780,15 +3815,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B247" t="s">
         <v>30</v>
@@ -3796,7 +3831,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
@@ -3804,7 +3839,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
         <v>35</v>
@@ -3812,7 +3847,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B250" t="s">
         <v>53</v>
@@ -3820,23 +3855,23 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -3844,7 +3879,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B254" t="s">
         <v>35</v>
@@ -3852,15 +3887,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B255" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B256" t="s">
         <v>58</v>
@@ -3868,23 +3903,23 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B257" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B259" t="s">
         <v>53</v>
@@ -3892,7 +3927,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B260" t="s">
         <v>53</v>
@@ -3900,7 +3935,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
@@ -3908,23 +3943,23 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B264" t="s">
         <v>30</v>
@@ -3932,7 +3967,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B265" t="s">
         <v>38</v>
@@ -3940,7 +3975,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B266" t="s">
         <v>38</v>
@@ -3948,7 +3983,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -3956,7 +3991,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B268" t="s">
         <v>38</v>
@@ -3964,7 +3999,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B269" t="s">
         <v>25</v>
@@ -3972,15 +4007,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s">
         <v>25</v>
@@ -3988,23 +4023,23 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B274" t="s">
         <v>17</v>
@@ -4012,15 +4047,15 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
@@ -4028,50 +4063,50 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B277" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B280" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>308</v>
+      </c>
+      <c r="B281" t="s">
         <v>307</v>
-      </c>
-      <c r="B281" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4122,7 @@
         <v>312</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4130,7 @@
         <v>313</v>
       </c>
       <c r="B285" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4146,7 @@
         <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4154,7 @@
         <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4170,7 @@
         <v>320</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4186,7 @@
         <v>322</v>
       </c>
       <c r="B292" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4202,7 @@
         <v>324</v>
       </c>
       <c r="B294" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,132 +4242,132 @@
         <v>330</v>
       </c>
       <c r="B299" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>332</v>
+      </c>
+      <c r="B301" t="s">
         <v>333</v>
-      </c>
-      <c r="B301" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B302" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B303" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>336</v>
+      </c>
+      <c r="B304" t="s">
         <v>337</v>
-      </c>
-      <c r="B304" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B305" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B306" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B307" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>341</v>
+      </c>
+      <c r="B308" t="s">
         <v>342</v>
-      </c>
-      <c r="B308" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B309" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>346</v>
+      </c>
+      <c r="B312" t="s">
         <v>347</v>
-      </c>
-      <c r="B312" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B313" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B314" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -4340,7 +4375,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B316" t="s">
         <v>15</v>
@@ -4348,7 +4383,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B317" t="s">
         <v>15</v>
@@ -4356,15 +4391,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B318" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B319" t="s">
         <v>91</v>
@@ -4372,7 +4407,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B320" t="s">
         <v>93</v>
@@ -4380,7 +4415,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B321" t="s">
         <v>91</v>
@@ -4388,7 +4423,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B322" t="s">
         <v>91</v>
@@ -4396,23 +4431,23 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B323" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B324" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B325" t="s">
         <v>91</v>
@@ -4420,7 +4455,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B326" t="s">
         <v>93</v>
@@ -4428,7 +4463,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B327" t="s">
         <v>15</v>
@@ -4436,7 +4471,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B328" t="s">
         <v>17</v>
@@ -4444,23 +4479,23 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B331" t="s">
         <v>15</v>
@@ -4468,7 +4503,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B332" t="s">
         <v>15</v>
@@ -4476,15 +4511,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B334" t="s">
         <v>17</v>
@@ -4492,23 +4527,23 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
@@ -4516,15 +4551,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -4532,7 +4567,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -4540,7 +4575,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B341" t="s">
         <v>25</v>
@@ -4548,15 +4583,15 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -4564,7 +4599,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -4572,7 +4607,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B345" t="s">
         <v>30</v>
@@ -4580,23 +4615,23 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B347" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B348" t="s">
         <v>30</v>
@@ -4604,7 +4639,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B349" t="s">
         <v>35</v>
@@ -4612,7 +4647,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B350" t="s">
         <v>38</v>
@@ -4620,7 +4655,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B351" t="s">
         <v>25</v>
@@ -4628,7 +4663,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B352" t="s">
         <v>30</v>
@@ -4636,7 +4671,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -4644,15 +4679,15 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B354" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -4660,7 +4695,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -4668,7 +4703,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -4676,7 +4711,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B358" t="s">
         <v>30</v>
@@ -4684,15 +4719,15 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B359" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B360" t="s">
         <v>38</v>
@@ -4700,7 +4735,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -4708,15 +4743,15 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B362" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B363" t="s">
         <v>30</v>
@@ -4724,7 +4759,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B364" t="s">
         <v>30</v>
@@ -4732,7 +4767,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B365" t="s">
         <v>38</v>
@@ -4740,15 +4775,15 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B366" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B367" t="s">
         <v>30</v>
@@ -4756,7 +4791,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B368" t="s">
         <v>38</v>
@@ -4764,7 +4799,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B369" t="s">
         <v>38</v>
@@ -4772,7 +4807,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -4780,15 +4815,15 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B371" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -4796,7 +4831,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B373" t="s">
         <v>53</v>
@@ -4804,7 +4839,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B374" t="s">
         <v>45</v>
@@ -4812,15 +4847,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B375" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B376" t="s">
         <v>58</v>
@@ -4828,23 +4863,23 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B377" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B378" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B379" t="s">
         <v>38</v>
@@ -4852,7 +4887,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B380" t="s">
         <v>53</v>
@@ -4860,7 +4895,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B381" t="s">
         <v>58</v>
@@ -4868,7 +4903,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B382" t="s">
         <v>38</v>
@@ -4876,15 +4911,15 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B383" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B384" t="s">
         <v>53</v>
@@ -4892,7 +4927,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B385" t="s">
         <v>58</v>
@@ -4900,135 +4935,135 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B386" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B387" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B388" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B389" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>425</v>
+      </c>
+      <c r="B390" t="s">
         <v>426</v>
-      </c>
-      <c r="B390" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B391" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B392" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B393" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>430</v>
+      </c>
+      <c r="B394" t="s">
         <v>431</v>
-      </c>
-      <c r="B394" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B395" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B396" t="s">
-        <v>427</v>
+        <v>196</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B399" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B400" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B401" t="s">
-        <v>427</v>
+        <v>196</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B402" t="s">
         <v>196</v>
@@ -5036,7 +5071,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B403" t="s">
         <v>58</v>
@@ -5044,15 +5079,15 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B404" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B405" t="s">
         <v>45</v>
@@ -5060,7 +5095,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B406" t="s">
         <v>58</v>
@@ -5068,55 +5103,55 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B407" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B408" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B409" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B410" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B411" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B412" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B413" t="s">
         <v>17</v>
@@ -5124,15 +5159,15 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B414" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B415" t="s">
         <v>15</v>
@@ -5140,23 +5175,23 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B416" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B417" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B418" t="s">
         <v>30</v>
@@ -5164,15 +5199,15 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B419" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B420" t="s">
         <v>38</v>
@@ -5180,7 +5215,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B421" t="s">
         <v>30</v>
@@ -5188,7 +5223,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B422" t="s">
         <v>38</v>
@@ -5196,7 +5231,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B423" t="s">
         <v>35</v>
@@ -5204,7 +5239,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B424" t="s">
         <v>58</v>
@@ -5212,15 +5247,15 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B425" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B426" t="s">
         <v>196</v>
@@ -5228,39 +5263,48 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B427" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B428" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B429" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>470</v>
+      </c>
+      <c r="B430" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>472</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B431" t="s">
         <v>473</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/CBS/NFIB/Actual Compensation Changes.xlsx
+++ b/data/CBS/NFIB/Actual Compensation Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DAF4DA-78E8-4F78-9CB2-EAC83764E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{891368A0-1A19-4178-AD63-5AB729701CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="479">
   <si>
     <t>Month/Year</t>
   </si>
@@ -55,276 +55,276 @@
     <t>1986/6/1</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
     <t>1992/10/1</t>
   </si>
   <si>
@@ -511,15 +511,15 @@
     <t>1997/9/1</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>1997/10/1</t>
   </si>
   <si>
     <t>1997/11/1</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>1997/12/1</t>
   </si>
   <si>
@@ -577,6 +577,9 @@
     <t>1999/6/1</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>1999/7/1</t>
   </si>
   <si>
@@ -631,9 +634,6 @@
     <t>2000/11/1</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>2000/12/1</t>
   </si>
   <si>
@@ -955,66 +955,72 @@
     <t>2009/6/1</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
     <t>2010/6/1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
     <t>2010/11/1</t>
   </si>
   <si>
@@ -1315,18 +1321,21 @@
     <t>2018/9/1</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
     <t>2019/1/1</t>
   </si>
   <si>
@@ -1417,7 +1426,7 @@
     <t>2021/6/1</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>2021/7/1</t>
@@ -1442,6 +1451,12 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1914,36 +1929,36 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1951,31 +1966,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1983,15 +1998,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1999,15 +2014,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2015,18 +2030,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2049,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,44 +2081,44 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2111,23 +2126,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2135,95 +2150,95 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -2231,7 +2246,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2239,7 +2254,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2247,23 +2262,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2271,7 +2286,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -2279,31 +2294,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2311,15 +2326,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2327,7 +2342,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2335,178 +2350,178 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
         <v>86</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
         <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
         <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
         <v>100</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2529,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2537,7 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2545,7 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2553,7 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,7 +2561,7 @@
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,7 +2569,7 @@
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2577,7 @@
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2585,7 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2593,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2609,7 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2617,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2625,7 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,7 +2641,7 @@
         <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2634,7 +2649,7 @@
         <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2689,7 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2713,7 @@
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2721,7 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2729,7 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2737,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2745,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2753,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2761,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2777,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2785,7 @@
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2793,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2801,7 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2809,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2833,7 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +2857,7 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +2865,7 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,7 +2873,7 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2881,7 @@
         <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2889,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2897,7 @@
         <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2905,7 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2913,7 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2937,7 @@
         <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2945,7 @@
         <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2977,7 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2985,7 @@
         <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2993,7 @@
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,12 +3001,12 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
         <v>158</v>
@@ -2999,10 +3014,10 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3041,7 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3049,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3057,7 @@
         <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3073,7 @@
         <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3081,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3097,7 @@
         <v>175</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3105,7 @@
         <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3113,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3121,7 @@
         <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3129,7 @@
         <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3137,7 @@
         <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3145,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3153,7 @@
         <v>182</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,12 +3169,12 @@
         <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
         <v>158</v>
@@ -3167,63 +3182,63 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
         <v>152</v>
@@ -3231,66 +3246,66 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B176" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B180" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3313,7 @@
         <v>204</v>
       </c>
       <c r="B181" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3321,7 @@
         <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3329,7 @@
         <v>206</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3337,7 @@
         <v>207</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3345,7 @@
         <v>208</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3353,7 @@
         <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3361,7 @@
         <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3369,7 @@
         <v>211</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3385,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3393,7 @@
         <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3409,7 @@
         <v>216</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3417,7 @@
         <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3425,7 @@
         <v>218</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3433,7 @@
         <v>219</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3449,7 @@
         <v>221</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3457,7 @@
         <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3481,7 @@
         <v>225</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3505,7 @@
         <v>228</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3521,7 @@
         <v>230</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3529,7 @@
         <v>231</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3553,7 @@
         <v>234</v>
       </c>
       <c r="B211" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3561,7 @@
         <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3569,7 @@
         <v>236</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3577,7 @@
         <v>237</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3609,7 @@
         <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3617,7 @@
         <v>242</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3625,7 @@
         <v>243</v>
       </c>
       <c r="B220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3633,7 @@
         <v>244</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3649,7 @@
         <v>246</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3657,7 @@
         <v>247</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3673,7 @@
         <v>249</v>
       </c>
       <c r="B226" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3689,7 @@
         <v>251</v>
       </c>
       <c r="B228" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3697,7 @@
         <v>252</v>
       </c>
       <c r="B229" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3705,7 @@
         <v>253</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3713,7 @@
         <v>254</v>
       </c>
       <c r="B231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3729,7 @@
         <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,7 +3737,7 @@
         <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +3745,7 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +3769,7 @@
         <v>261</v>
       </c>
       <c r="B238" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3777,7 @@
         <v>262</v>
       </c>
       <c r="B239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +3785,7 @@
         <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +3793,7 @@
         <v>264</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3801,7 @@
         <v>265</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3809,7 @@
         <v>266</v>
       </c>
       <c r="B243" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3817,7 @@
         <v>267</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3825,7 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3833,7 @@
         <v>269</v>
       </c>
       <c r="B246" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3841,7 @@
         <v>270</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3849,7 @@
         <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3865,7 @@
         <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3881,7 @@
         <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3913,7 @@
         <v>279</v>
       </c>
       <c r="B256" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3921,7 @@
         <v>280</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3929,7 @@
         <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3937,7 @@
         <v>282</v>
       </c>
       <c r="B259" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3945,7 @@
         <v>283</v>
       </c>
       <c r="B260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3953,7 @@
         <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3961,7 @@
         <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3969,7 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3977,7 @@
         <v>287</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3985,7 @@
         <v>288</v>
       </c>
       <c r="B265" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3993,7 @@
         <v>289</v>
       </c>
       <c r="B266" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4009,7 @@
         <v>291</v>
       </c>
       <c r="B268" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4017,7 @@
         <v>292</v>
       </c>
       <c r="B269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4025,7 @@
         <v>293</v>
       </c>
       <c r="B270" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4033,7 @@
         <v>294</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4041,7 @@
         <v>295</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4049,7 @@
         <v>296</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4057,7 @@
         <v>297</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4065,7 @@
         <v>298</v>
       </c>
       <c r="B275" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4073,7 @@
         <v>299</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4162,12 +4177,12 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B290" t="s">
         <v>307</v>
@@ -4175,10 +4190,10 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>320</v>
+      </c>
+      <c r="B291" t="s">
         <v>321</v>
-      </c>
-      <c r="B291" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4209,7 @@
         <v>323</v>
       </c>
       <c r="B293" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,36 +4217,36 @@
         <v>324</v>
       </c>
       <c r="B294" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B295" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B296" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B297" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B298" t="s">
         <v>315</v>
@@ -4239,15 +4254,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B299" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B300" t="s">
         <v>301</v>
@@ -4255,15 +4270,15 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B301" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B302" t="s">
         <v>301</v>
@@ -4271,23 +4286,23 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>337</v>
+      </c>
+      <c r="B303" t="s">
         <v>335</v>
-      </c>
-      <c r="B303" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B304" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B305" t="s">
         <v>301</v>
@@ -4295,7 +4310,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B306" t="s">
         <v>301</v>
@@ -4303,23 +4318,23 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B307" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B308" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B309" t="s">
         <v>301</v>
@@ -4327,223 +4342,223 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B311" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B312" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>351</v>
+      </c>
+      <c r="B314" t="s">
         <v>349</v>
-      </c>
-      <c r="B314" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B319" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B321" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B322" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B323" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B325" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B328" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B329" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B333" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B334" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B335" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B336" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
@@ -4551,15 +4566,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -4567,7 +4582,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -4575,31 +4590,31 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B341" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -4607,15 +4622,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
@@ -4623,7 +4638,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -4631,15 +4646,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B348" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B349" t="s">
         <v>35</v>
@@ -4647,31 +4662,31 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B350" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B351" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -4679,7 +4694,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B354" t="s">
         <v>35</v>
@@ -4687,15 +4702,15 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -4703,7 +4718,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -4711,15 +4726,15 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B358" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -4727,15 +4742,15 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B360" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -4743,87 +4758,87 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B362" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B363" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B365" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B366" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B367" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B368" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B369" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B370" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B371" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -4831,111 +4846,111 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B373" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B374" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B376" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B377" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B378" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B379" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B380" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B381" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B382" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B383" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B384" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B385" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B386" t="s">
         <v>158</v>
@@ -4943,47 +4958,47 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B387" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B388" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B389" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B390" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B391" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B392" t="s">
         <v>152</v>
@@ -4991,7 +5006,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B393" t="s">
         <v>152</v>
@@ -4999,87 +5014,87 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B394" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B395" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B396" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B397" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B398" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B399" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B400" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B401" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B402" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B403" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B404" t="s">
         <v>152</v>
@@ -5087,31 +5102,31 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B405" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B406" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B407" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B408" t="s">
         <v>158</v>
@@ -5119,7 +5134,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B409" t="s">
         <v>158</v>
@@ -5127,111 +5142,111 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B410" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B411" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B412" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B415" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B416" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B417" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B418" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B419" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B420" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B421" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B422" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B423" t="s">
         <v>35</v>
@@ -5239,66 +5254,74 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B424" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B425" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B426" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B427" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B428" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B429" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B430" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B431" t="s">
-        <v>473</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>477</v>
+      </c>
+      <c r="B432" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
